--- a/src/main/resources/fileTemplate/templatePhieuNhanHang.xlsx
+++ b/src/main/resources/fileTemplate/templatePhieuNhanHang.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB9DA38-2212-4196-879B-D345A99CF05D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Phiếu nhận hàng" sheetId="1" r:id="rId1"/>
@@ -403,11 +402,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$VND]\ #,##0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -446,6 +446,13 @@
       <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -516,8 +523,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -578,11 +586,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -915,11 +924,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/fileTemplate/templatePhieuNhanHang.xlsx
+++ b/src/main/resources/fileTemplate/templatePhieuNhanHang.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Phiếu nhận hàng" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>TT</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>Thành tiền</t>
-  </si>
-  <si>
-    <t>Nút sổ</t>
   </si>
   <si>
     <t>Nhà xe</t>
@@ -375,6 +372,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve"> ${ngayNhanHang}</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -392,11 +392,8 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">  ${phieuNhanHang.payer}</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> ${ngayNhanHang}</t>
+      <t xml:space="preserve">  ${nguoiThanhToan.fullName}</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -405,7 +402,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -455,7 +452,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -465,12 +462,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,7 +532,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -568,15 +559,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -586,8 +574,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -928,16 +919,14 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="2" customWidth="1"/>
+    <col min="3" max="5" width="18.7109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" style="2" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" style="2" customWidth="1"/>
@@ -947,137 +936,135 @@
   <sheetData>
     <row r="1" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="B1" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
     </row>
     <row r="2" spans="1:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="B3" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
       <c r="G3" s="4"/>
       <c r="H3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="20" t="s">
-        <v>24</v>
+      <c r="I3" s="18" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
       <c r="G4" s="4"/>
       <c r="H4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="20" t="s">
-        <v>45</v>
+      <c r="I4" s="18" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
       <c r="G5" s="4"/>
       <c r="H5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="20" t="s">
-        <v>25</v>
+      <c r="I5" s="18" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17" t="s">
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
-      <c r="I7" s="3"/>
+      <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17" t="s">
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
-      <c r="I9" s="3"/>
+      <c r="I9" s="24"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="18"/>
+      <c r="A10" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="17"/>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="3"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
@@ -1121,29 +1108,29 @@
     </row>
     <row r="13" spans="1:9" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="C13" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="D13" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="E13" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="F13" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="G13" s="19" t="s">
         <v>33</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>34</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1183,32 +1170,40 @@
     </row>
     <row r="22" spans="2:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="12" t="s">
         <v>20</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" s="13"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="10">
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F10:I10"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B3:F5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="11" orientation="landscape" r:id="rId1"/>

--- a/src/main/resources/fileTemplate/templatePhieuNhanHang.xlsx
+++ b/src/main/resources/fileTemplate/templatePhieuNhanHang.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>TT</t>
   </si>
@@ -52,21 +52,6 @@
   </si>
   <si>
     <t>Lưu ý:</t>
-  </si>
-  <si>
-    <t>­ Tình trạng hàng hóa: Người gửi hàng chịu trách nhiệm khai báo về hàng hóa.Mọi thắc mắc được giải quyết trong 15 ngày.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">­ Quý Khách hàng cam kết không gửi hàng quốc cấm: hàng hóa khi gửi mà không có hóa đơn chứng từ đầy đủ theo hàng hóa thì chủ hàng </t>
-  </si>
-  <si>
-    <t>phải tự chịu trách nhiệm trước pháp luật với hàng hóa của mình.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">­ Hàng hóa có giá trị xin quý khách vui lòng cho kiểm tra và khai báo giá trị hàng hóa. Nếu hàng hóa có kê khai trị giá (hàng có kiểm) tính 2% </t>
-  </si>
-  <si>
-    <t>giá trị kê khai. Hàng hóa trong quá trình vận chuyển nếu có hư hỏng, mất mát hàng hóa thì mức bồ thường thiệt hại theo thỏa thuận.</t>
   </si>
   <si>
     <t>­ Hàng dễ vỡ xin quý khách vui lòng cho kiểm tra hàng hóa bên trong. Nếu không, STL không chịu trách nhiệm hàng hóa bên trong</t>
@@ -394,6 +379,27 @@
       </rPr>
       <t xml:space="preserve">  ${nguoiThanhToan.fullName}</t>
     </r>
+  </si>
+  <si>
+    <t>- Tình trạng hàng hóa: Người gửi hàng chịu trách nhiện khai báo về hàng hóa. Mọi thắc mắc được giải quyết trong 15 ngày.</t>
+  </si>
+  <si>
+    <t>- Quý khách hàng cam kết không gửi hàng quốc cấm, Khách hàng chịu toàn bộ trách nhiệm  trước pháp luật về việc khai báo sai và gửi hàng quốc cấm.</t>
+  </si>
+  <si>
+    <t>- Hàng hóa khi gửi mà không có hóa đơn chứng từ đầy đủ thao hàng hóa thì chủ hàng phải tự chịu trách nhiệm trước pháp luật với hàng hóa của mình.</t>
+  </si>
+  <si>
+    <t>- Công ty TNHH Giao nhận &amp; Vận tải Tốc độ Việt Nam chỉ làm dịch vụ vận chuyển hàng hóa và không chịu bất kỳ trách nhiện gì với tính pháp lý của</t>
+  </si>
+  <si>
+    <t>hàng hóa như: Hàng quốc cấm, hàng tranh chấp bản quyền, quyền sở hữu về hàng hóa, …</t>
+  </si>
+  <si>
+    <t>- Hàng hóa có giá trị xin quý khách vui lòng cho kiểm tra và khai báo giá trị hàng hóa. Nếu hàng hóa có kê khai giá trị(hàng có kiểm) tính 2% giá trị kê</t>
+  </si>
+  <si>
+    <t>khai. Hàng hóa trong quá trình vận chuyển nếu có hư hỏng, mất mát hàng hóa thì mức bồi thường thiệt hại theo thỏa thuận.</t>
   </si>
 </sst>
 </file>
@@ -518,7 +524,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -565,6 +571,12 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -574,10 +586,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -916,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,142 +941,142 @@
     <col min="3" max="5" width="18.7109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" style="2" customWidth="1"/>
     <col min="9" max="9" width="33.28515625" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="B1" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
+      <c r="B3" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
       <c r="G3" s="4"/>
       <c r="H3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
       <c r="G4" s="4"/>
       <c r="H4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
       <c r="G5" s="4"/>
       <c r="H5" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
+      <c r="A6" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="17"/>
-      <c r="F6" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
+      <c r="F6" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
+      <c r="A7" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
-      <c r="I7" s="24"/>
+      <c r="I7" s="20"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
+      <c r="A8" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="17"/>
-      <c r="F8" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
+      <c r="F8" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
+      <c r="A9" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
-      <c r="I9" s="24"/>
+      <c r="I9" s="20"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
+      <c r="A10" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="17"/>
-      <c r="F10" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
+      <c r="F10" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
@@ -1097,7 +1109,7 @@
         <v>5</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>6</v>
@@ -1108,29 +1120,29 @@
     </row>
     <row r="13" spans="1:9" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="G13" s="19" t="s">
         <v>28</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>33</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1139,71 +1151,135 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="25" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+    </row>
+    <row r="24" spans="2:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
+      <c r="H24" s="12" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="13"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="10" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="16" t="s">
-        <v>26</v>
+        <v>20</v>
+      </c>
+      <c r="C25" s="13"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="16" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="16">
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B3:F5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="F6:I6"/>
     <mergeCell ref="F8:I8"/>
     <mergeCell ref="F10:I10"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B3:F5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="11" orientation="landscape" r:id="rId1"/>

--- a/src/main/resources/fileTemplate/templatePhieuNhanHang.xlsx
+++ b/src/main/resources/fileTemplate/templatePhieuNhanHang.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>TT</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Kích thước</t>
   </si>
   <si>
-    <t>Giấy tờ kèm theo</t>
-  </si>
-  <si>
     <t>Ghi chú</t>
   </si>
   <si>
@@ -60,9 +57,6 @@
     <t>Kho tiếp nhận:</t>
   </si>
   <si>
-    <t>Thành tiền</t>
-  </si>
-  <si>
     <t>Nhà xe</t>
   </si>
   <si>
@@ -103,9 +97,6 @@
   </si>
   <si>
     <t>${item.sizes}</t>
-  </si>
-  <si>
-    <t>${item.cost}</t>
   </si>
   <si>
     <t>${item.note}&lt;/jt:forEach&gt;</t>
@@ -400,6 +391,12 @@
   </si>
   <si>
     <t>khai. Hàng hóa trong quá trình vận chuyển nếu có hư hỏng, mất mát hàng hóa thì mức bồi thường thiệt hại theo thỏa thuận.</t>
+  </si>
+  <si>
+    <t>Hình thức thanh toán</t>
+  </si>
+  <si>
+    <t>${item.soTienPhaiThu}</t>
   </si>
 </sst>
 </file>
@@ -478,7 +475,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -510,28 +507,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -540,9 +525,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -571,26 +553,23 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -928,10 +907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="B15" sqref="B15:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,346 +919,331 @@
     <col min="2" max="2" width="28.28515625" style="2" customWidth="1"/>
     <col min="3" max="5" width="18.7109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="33.28515625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="7" max="7" width="21.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="29.5703125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+    </row>
+    <row r="2" spans="1:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-    </row>
-    <row r="2" spans="1:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="21" t="s">
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="20"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="20"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="6"/>
+      <c r="D11" s="5"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+    </row>
+    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+    </row>
+    <row r="24" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-    </row>
-    <row r="24" spans="2:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="11" t="s">
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="11"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="13"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="10" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="16" t="s">
-        <v>21</v>
+      <c r="B27" s="14" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:F5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
     <mergeCell ref="B22:H22"/>
     <mergeCell ref="B15:H15"/>
     <mergeCell ref="B17:H17"/>
     <mergeCell ref="B18:H18"/>
     <mergeCell ref="B19:H19"/>
     <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B3:F5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F10:I10"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="11" orientation="landscape" r:id="rId1"/>

--- a/src/main/resources/fileTemplate/templatePhieuNhanHang.xlsx
+++ b/src/main/resources/fileTemplate/templatePhieuNhanHang.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>TT</t>
   </si>
@@ -391,23 +391,13 @@
   </si>
   <si>
     <t>khai. Hàng hóa trong quá trình vận chuyển nếu có hư hỏng, mất mát hàng hóa thì mức bồi thường thiệt hại theo thỏa thuận.</t>
-  </si>
-  <si>
-    <t>Hình thức thanh toán</t>
-  </si>
-  <si>
-    <t>${item.soTienPhaiThu}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -446,13 +436,6 @@
       <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -508,11 +491,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -531,9 +513,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -550,30 +529,29 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -907,147 +885,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:H15"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" style="2" customWidth="1"/>
-    <col min="3" max="5" width="18.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="29.5703125" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="2" width="32.85546875" style="2" customWidth="1"/>
+    <col min="3" max="6" width="21.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-    </row>
-    <row r="2" spans="1:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="22" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+    </row>
+    <row r="2" spans="1:7" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="4" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="G3" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="4" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="G4" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="4" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="G5" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="23" t="s">
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+      <c r="G6" s="17"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="23" t="s">
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="23" t="s">
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1055,9 +1022,8 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>0</v>
       </c>
@@ -1077,173 +1043,161 @@
         <v>5</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:7" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="13" t="s">
+      <c r="G13" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="19" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="18" t="s">
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="19" t="s">
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="19" t="s">
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="19" t="s">
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="19" t="s">
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="18" t="s">
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="19" t="s">
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-    </row>
-    <row r="24" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+    </row>
+    <row r="24" spans="2:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H24" s="10" t="s">
+      <c r="F24" s="22" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="14" t="s">
+      <c r="G24" s="22"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="11"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C25" s="10"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="14" t="s">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="13" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:F5"/>
+  <mergeCells count="17">
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B1:G1"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A8:D8"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="A3:E5"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F10:G10"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="11" orientation="landscape" r:id="rId1"/>

--- a/src/main/resources/fileTemplate/templatePhieuNhanHang.xlsx
+++ b/src/main/resources/fileTemplate/templatePhieuNhanHang.xlsx
@@ -51,9 +51,6 @@
     <t>Lưu ý:</t>
   </si>
   <si>
-    <t>­ Hàng dễ vỡ xin quý khách vui lòng cho kiểm tra hàng hóa bên trong. Nếu không, STL không chịu trách nhiệm hàng hóa bên trong</t>
-  </si>
-  <si>
     <t>Kho tiếp nhận:</t>
   </si>
   <si>
@@ -372,25 +369,28 @@
     </r>
   </si>
   <si>
-    <t>- Tình trạng hàng hóa: Người gửi hàng chịu trách nhiện khai báo về hàng hóa. Mọi thắc mắc được giải quyết trong 15 ngày.</t>
-  </si>
-  <si>
-    <t>- Quý khách hàng cam kết không gửi hàng quốc cấm, Khách hàng chịu toàn bộ trách nhiệm  trước pháp luật về việc khai báo sai và gửi hàng quốc cấm.</t>
-  </si>
-  <si>
-    <t>- Hàng hóa khi gửi mà không có hóa đơn chứng từ đầy đủ thao hàng hóa thì chủ hàng phải tự chịu trách nhiệm trước pháp luật với hàng hóa của mình.</t>
-  </si>
-  <si>
-    <t>- Công ty TNHH Giao nhận &amp; Vận tải Tốc độ Việt Nam chỉ làm dịch vụ vận chuyển hàng hóa và không chịu bất kỳ trách nhiện gì với tính pháp lý của</t>
-  </si>
-  <si>
-    <t>hàng hóa như: Hàng quốc cấm, hàng tranh chấp bản quyền, quyền sở hữu về hàng hóa, …</t>
-  </si>
-  <si>
-    <t>- Hàng hóa có giá trị xin quý khách vui lòng cho kiểm tra và khai báo giá trị hàng hóa. Nếu hàng hóa có kê khai giá trị(hàng có kiểm) tính 2% giá trị kê</t>
-  </si>
-  <si>
-    <t>khai. Hàng hóa trong quá trình vận chuyển nếu có hư hỏng, mất mát hàng hóa thì mức bồi thường thiệt hại theo thỏa thuận.</t>
+    <t>- Công ty TNHH Giao nhận &amp; Vận tải Tốc độ Việt Nam chỉ làm dịch vụ vận chuyển hàng hóa và không chịu bất kỳ trách nhiện gì với tình pháp lý</t>
+  </si>
+  <si>
+    <t>của hàng hóa như: Hàng quốc cấm, hàng tranh chấp bản quyền, quyền sở hữu về hàng hóa,...</t>
+  </si>
+  <si>
+    <t>- Tình trạng hàng hóa: Người gửi hàng chịu trách nhiệm khai báo về hàng hóa. Mọi thắc mắc được giải quyết trong 15 ngày.</t>
+  </si>
+  <si>
+    <t>- Quý khách hàng cam kết không gửi hàng quốc cấm. khách hàng chịu toàn bộ trách nhiệm trước pháp luật về việc khai báo sai và gửi hàng quốc cấm.</t>
+  </si>
+  <si>
+    <t>- Hàng hóa khi gửi mà không có hóa đơn chứng từ đầy đủ theo hàng hóa thì chủ hàng hóa phải tự chịu trách nhiệm trước pháp luật với hàng hóa của mình.</t>
+  </si>
+  <si>
+    <t>- Hàng hóa có giá trị xin quý khách vui lòng cho kiểm tra và khai báo giá trị hàng hóa. Nếu hàng hóa có kê khai trị giá(hàng có kiểm) tình 2% giá trị kê khai.</t>
+  </si>
+  <si>
+    <t>Hàng hóa trong quá trình vận chuyển nếu có hư hỏng, Mất mát hàng hóa thì mức độ bồi thường thiệt hại theo thỏa thuận.</t>
+  </si>
+  <si>
+    <t>- Hàng dễ vỡ xin quý khách vui lòng cho kiểm tra hàng hóa bên trong. Nếu không, STL không chịu trách nhiệm hàng hóa bên trong.</t>
   </si>
 </sst>
 </file>
@@ -458,7 +458,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -490,50 +490,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -541,14 +537,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -888,7 +902,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,291 +910,292 @@
     <col min="1" max="1" width="9.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="32.85546875" style="2" customWidth="1"/>
     <col min="3" max="6" width="21.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="25.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="36.28515625" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
+      <c r="B1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:7" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="15" t="s">
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="4" t="s">
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+    </row>
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+    </row>
+    <row r="24" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="F24" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="15"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="23" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="17"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="17"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="17"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-    </row>
-    <row r="24" spans="2:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="22" t="s">
+      <c r="C25" s="6"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="22"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="13" t="s">
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="10"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="13" t="s">
-        <v>19</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="20">
+    <mergeCell ref="E10:G10"/>
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="B15:G15"/>
@@ -1192,12 +1207,14 @@
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A3:E5"/>
+    <mergeCell ref="A3:D5"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E8:G8"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F10:G10"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="11" orientation="landscape" r:id="rId1"/>

--- a/src/main/resources/fileTemplate/templatePhieuNhanHang.xlsx
+++ b/src/main/resources/fileTemplate/templatePhieuNhanHang.xlsx
@@ -99,19 +99,179 @@
     <t>${item.note}&lt;/jt:forEach&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve"> ${ngayNhanHang}</t>
+  </si>
+  <si>
+    <t>- Công ty TNHH Giao nhận &amp; Vận tải Tốc độ Việt Nam chỉ làm dịch vụ vận chuyển hàng hóa và không chịu bất kỳ trách nhiện gì với tình pháp lý</t>
+  </si>
+  <si>
+    <t>của hàng hóa như: Hàng quốc cấm, hàng tranh chấp bản quyền, quyền sở hữu về hàng hóa,...</t>
+  </si>
+  <si>
+    <t>- Tình trạng hàng hóa: Người gửi hàng chịu trách nhiệm khai báo về hàng hóa. Mọi thắc mắc được giải quyết trong 15 ngày.</t>
+  </si>
+  <si>
+    <t>- Quý khách hàng cam kết không gửi hàng quốc cấm. khách hàng chịu toàn bộ trách nhiệm trước pháp luật về việc khai báo sai và gửi hàng quốc cấm.</t>
+  </si>
+  <si>
+    <t>- Hàng hóa khi gửi mà không có hóa đơn chứng từ đầy đủ theo hàng hóa thì chủ hàng hóa phải tự chịu trách nhiệm trước pháp luật với hàng hóa của mình.</t>
+  </si>
+  <si>
+    <t>- Hàng hóa có giá trị xin quý khách vui lòng cho kiểm tra và khai báo giá trị hàng hóa. Nếu hàng hóa có kê khai trị giá(hàng có kiểm) tình 2% giá trị kê khai.</t>
+  </si>
+  <si>
+    <t>Hàng hóa trong quá trình vận chuyển nếu có hư hỏng, Mất mát hàng hóa thì mức độ bồi thường thiệt hại theo thỏa thuận.</t>
+  </si>
+  <si>
+    <t>- Hàng dễ vỡ xin quý khách vui lòng cho kiểm tra hàng hóa bên trong. Nếu không, STL không chịu trách nhiệm hàng hóa bên trong.</t>
+  </si>
+  <si>
+    <t>Điện thoại: ${nguoiGui.mobile}</t>
+  </si>
+  <si>
+    <t>Điện thoại:  ${nguoiNhan.mobile}</t>
+  </si>
+  <si>
+    <t>Người thanh toán:  ${nguoiThanhToan.fullName}</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">CÔNG TY TNHH GIAO NHẬN &amp; VẬN TẢI TỐC ĐỘ VIỆT NAM </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Người gửi:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ${nguoiGui.fullName}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Địa chỉ lấy hàng:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ${nguoiGui.address}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Người nhận:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  ${nguoiNhan.fullName}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Địa chỉ giao hàng:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  ${nguoiNhan.address}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Thanh toán:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ${loaiThanhToan}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CÔNG TY TNHH GIAO NHẬN &amp; VẬN TẢI TỐC ĐỘ VIỆT NAM</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -122,7 +282,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="8"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -131,18 +291,18 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Số 9, ngách 20/2 phố Nghĩa Đô, Phường Nghĩa Đô, Quận Cầu Giấy, Thành phố Hà Nội
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Số 9, ngách 20/2 phố Nghĩa Đô, Phường Nghĩa Đô, Quận Cầu Giấy, Thành phố Hà Nội  
 </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="8"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -151,7 +311,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="8"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -161,7 +321,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="8"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -170,7 +330,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="8"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -180,7 +340,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="8"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -189,215 +349,21 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> www.stlvietnam.vn</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Người gửi:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  ${nguoiGui.fullName}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Điện thoại:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> ${nguoiGui.mobile}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Địa chỉ lấy hàng:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> ${nguoiGui.address}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Người nhận:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  ${nguoiNhan.fullName}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Điện thoại:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  ${nguoiNhan.mobile}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Địa chỉ giao hàng:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  ${nguoiNhan.address}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Thanh toán:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> ${loaiThanhToan}</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> ${ngayNhanHang}</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Người thanh toán:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  ${nguoiThanhToan.fullName}</t>
-    </r>
-  </si>
-  <si>
-    <t>- Công ty TNHH Giao nhận &amp; Vận tải Tốc độ Việt Nam chỉ làm dịch vụ vận chuyển hàng hóa và không chịu bất kỳ trách nhiện gì với tình pháp lý</t>
-  </si>
-  <si>
-    <t>của hàng hóa như: Hàng quốc cấm, hàng tranh chấp bản quyền, quyền sở hữu về hàng hóa,...</t>
-  </si>
-  <si>
-    <t>- Tình trạng hàng hóa: Người gửi hàng chịu trách nhiệm khai báo về hàng hóa. Mọi thắc mắc được giải quyết trong 15 ngày.</t>
-  </si>
-  <si>
-    <t>- Quý khách hàng cam kết không gửi hàng quốc cấm. khách hàng chịu toàn bộ trách nhiệm trước pháp luật về việc khai báo sai và gửi hàng quốc cấm.</t>
-  </si>
-  <si>
-    <t>- Hàng hóa khi gửi mà không có hóa đơn chứng từ đầy đủ theo hàng hóa thì chủ hàng hóa phải tự chịu trách nhiệm trước pháp luật với hàng hóa của mình.</t>
-  </si>
-  <si>
-    <t>- Hàng hóa có giá trị xin quý khách vui lòng cho kiểm tra và khai báo giá trị hàng hóa. Nếu hàng hóa có kê khai trị giá(hàng có kiểm) tình 2% giá trị kê khai.</t>
-  </si>
-  <si>
-    <t>Hàng hóa trong quá trình vận chuyển nếu có hư hỏng, Mất mát hàng hóa thì mức độ bồi thường thiệt hại theo thỏa thuận.</t>
-  </si>
-  <si>
-    <t>- Hàng dễ vỡ xin quý khách vui lòng cho kiểm tra hàng hóa bên trong. Nếu không, STL không chịu trách nhiệm hàng hóa bên trong.</t>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> www.stlvietnam.vn  
+</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,20 +372,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="8"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -427,13 +393,27 @@
     <font>
       <b/>
       <i/>
-      <sz val="11"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -458,7 +438,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -490,15 +470,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -506,63 +477,63 @@
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -592,7 +563,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
+      <xdr:colOff>558165</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>11430</xdr:rowOff>
     </xdr:to>
@@ -902,300 +873,299 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" style="2" customWidth="1"/>
-    <col min="3" max="6" width="21.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="36.28515625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="6.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16" style="4" customWidth="1"/>
+    <col min="7" max="7" width="36.28515625" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="F3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="F4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-    </row>
-    <row r="2" spans="1:7" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="18"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="17" t="s">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="F5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="15" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="18"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="18"/>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-    </row>
-    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-    </row>
-    <row r="24" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="5" t="s">
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+    </row>
+    <row r="24" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="15"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="23" t="s">
+      <c r="G24" s="20"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="6"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="4" t="s">
+      <c r="C25" s="22"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B26" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="23" t="s">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B27" s="21" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="E10:G10"/>
+  <mergeCells count="17">
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="B15:G15"/>
@@ -1203,21 +1173,19 @@
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="B20:G20"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A3:D5"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F10:G10"/>
   </mergeCells>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="11" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.23622047244094499" right="0.23622047244094499" top="0.196850393700787" bottom="0.196850393700787" header="0.31496062992126" footer="0.31496062992126"/>
+  <pageSetup paperSize="11" scale="80" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>